--- a/HW2/RGB.xlsx
+++ b/HW2/RGB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stud\2024 Summer\Image Processing\repo\image-processing\HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D77500E-FE78-457E-94F3-1370088347FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E3DE05-9E95-428E-9205-B22B7774613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ovals Manual 11" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Enter start file name, as computed in Task 0:</t>
-  </si>
-  <si>
-    <t>xxx</t>
   </si>
   <si>
     <t>Top-Left Coordinate X</t>
@@ -17288,8 +17285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17304,135 +17301,199 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
+      <c r="B1" s="4">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="e">
+      <c r="B3" s="6" t="str">
         <f t="shared" ref="B3:B10" si="0">($B$1+ROW()-3)&amp;"-11.jpg"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+        <v>145-11.jpg</v>
+      </c>
+      <c r="C3" s="3">
+        <v>200</v>
+      </c>
+      <c r="D3" s="3">
+        <v>75</v>
+      </c>
+      <c r="E3" s="3">
+        <v>223</v>
+      </c>
+      <c r="F3" s="3">
+        <v>351</v>
+      </c>
       <c r="G3" s="9" t="str">
         <f t="shared" ref="G3:G10" si="1">"makeOval("&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;");"</f>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(200,75,223,351);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="e">
+      <c r="B4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+        <v>146-11.jpg</v>
+      </c>
+      <c r="C4" s="3">
+        <v>182</v>
+      </c>
+      <c r="D4" s="3">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3">
+        <v>225</v>
+      </c>
+      <c r="F4" s="3">
+        <v>394</v>
+      </c>
       <c r="G4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(182,76,225,394);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="e">
+      <c r="B5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+        <v>147-11.jpg</v>
+      </c>
+      <c r="C5" s="3">
+        <v>199</v>
+      </c>
+      <c r="D5" s="3">
+        <v>121</v>
+      </c>
+      <c r="E5" s="3">
+        <v>246</v>
+      </c>
+      <c r="F5" s="3">
+        <v>392</v>
+      </c>
       <c r="G5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(199,121,246,392);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="e">
+      <c r="B6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>148-11.jpg</v>
+      </c>
+      <c r="C6" s="3">
+        <v>169</v>
+      </c>
+      <c r="D6" s="3">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3">
+        <v>289</v>
+      </c>
+      <c r="F6" s="3">
+        <v>467</v>
+      </c>
       <c r="G6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(169,46,289,467);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="e">
+      <c r="B7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+        <v>149-11.jpg</v>
+      </c>
+      <c r="C7" s="3">
+        <v>215</v>
+      </c>
+      <c r="D7" s="3">
+        <v>78</v>
+      </c>
+      <c r="E7" s="3">
+        <v>227</v>
+      </c>
+      <c r="F7" s="3">
+        <v>426</v>
+      </c>
       <c r="G7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(215,78,227,426);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="e">
+      <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>150-11.jpg</v>
+      </c>
+      <c r="C8" s="3">
+        <v>192</v>
+      </c>
+      <c r="D8" s="3">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3">
+        <v>242</v>
+      </c>
+      <c r="F8" s="3">
+        <v>319</v>
+      </c>
       <c r="G8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(192,69,242,319);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="e">
+      <c r="B9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+        <v>151-11.jpg</v>
+      </c>
+      <c r="C9" s="3">
+        <v>144</v>
+      </c>
+      <c r="D9" s="3">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>356</v>
+      </c>
+      <c r="F9" s="3">
+        <v>456</v>
+      </c>
       <c r="G9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(144,48,356,456);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="e">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>152-11.jpg</v>
+      </c>
+      <c r="C10" s="3">
+        <v>208</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3">
+        <v>228</v>
+      </c>
+      <c r="F10" s="3">
+        <v>370</v>
+      </c>
       <c r="G10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>makeOval(,,,);</v>
+        <v>makeOval(208,42,228,370);</v>
       </c>
     </row>
   </sheetData>
@@ -17445,7 +17506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+    <sheetView topLeftCell="A205" workbookViewId="0">
       <selection activeCell="S247" sqref="S247"/>
     </sheetView>
   </sheetViews>
@@ -17463,47 +17524,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="7">
         <f>'Ovals Manual 11'!B1</f>
-        <v>xxx</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -28538,30 +28599,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="4">
         <f>'Ovals Manual 11'!B1</f>
-        <v>xxx</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="e">
+      <c r="B3" s="6" t="str">
         <f t="shared" ref="B3:B10" si="0">($B$1+ROW()-3)&amp;"-11.jpg"</f>
-        <v>#VALUE!</v>
+        <v>145-11.jpg</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -28573,9 +28634,9 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="e">
+      <c r="B4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>146-11.jpg</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -28587,9 +28648,9 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="e">
+      <c r="B5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>147-11.jpg</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -28601,9 +28662,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="e">
+      <c r="B6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>148-11.jpg</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -28615,9 +28676,9 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="e">
+      <c r="B7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>149-11.jpg</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -28629,9 +28690,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="e">
+      <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>150-11.jpg</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -28643,9 +28704,9 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="e">
+      <c r="B9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>151-11.jpg</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -28657,9 +28718,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="e">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>152-11.jpg</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -28693,30 +28754,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="4">
         <f>'Ovals Manual 11'!B1</f>
-        <v>xxx</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="e">
+      <c r="B3" s="6" t="str">
         <f t="shared" ref="B3:B10" si="0">($B$1+ROW()-3)&amp;"-13.jpg"</f>
-        <v>#VALUE!</v>
+        <v>145-13.jpg</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -28728,9 +28789,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="e">
+      <c r="B4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>146-13.jpg</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -28742,9 +28803,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="e">
+      <c r="B5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>147-13.jpg</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -28756,9 +28817,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="e">
+      <c r="B6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>148-13.jpg</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -28770,9 +28831,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="e">
+      <c r="B7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>149-13.jpg</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -28784,9 +28845,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="e">
+      <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>150-13.jpg</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -28798,9 +28859,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="e">
+      <c r="B9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>151-13.jpg</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -28812,9 +28873,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="e">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>152-13.jpg</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -28827,18 +28888,18 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8"/>
     </row>
@@ -28866,47 +28927,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="7">
         <f>'Ovals Manual 11'!B1</f>
-        <v>xxx</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
